--- a/cocos_data/data/zh-cn/events.xlsx
+++ b/cocos_data/data/zh-cn/events.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
   <si>
     <t>$id</t>
   </si>
@@ -197,7 +197,7 @@
     <t>(MNY&lt;8)|(TLT?[1012])</t>
   </si>
   <si>
-    <t>你从小生活在城市</t>
+    <t>你从小生活在偏远山区</t>
   </si>
   <si>
     <t>(MNY&gt;1)|(TLT?[1010,1013])</t>
@@ -213,6 +213,66 @@
   </si>
   <si>
     <t>STR&gt;0:10000</t>
+  </si>
+  <si>
+    <t>学会了走路，虽然可能会有些摇摇晃晃，但已经能够自由地在家里四处探索。</t>
+  </si>
+  <si>
+    <t>EVT?[10010]</t>
+  </si>
+  <si>
+    <t>开始掌握大量的词汇，能够说出简单的句子。</t>
+  </si>
+  <si>
+    <t>开始能够识别颜色、形状和简单的数字。</t>
+  </si>
+  <si>
+    <t>开始尝试探索家中的每一个角落。</t>
+  </si>
+  <si>
+    <t>你的父母对你视若珍宝，呵护备至。</t>
+  </si>
+  <si>
+    <t>你自小便对大自然充满了敬畏和好奇</t>
+  </si>
+  <si>
+    <t>经常独自在山林间探索，聆听风声、鸟鸣，观察四季变换。</t>
+  </si>
+  <si>
+    <t>你比其他小朋友长得更可爱。</t>
+  </si>
+  <si>
+    <t>你很调皮，喜欢在家到处乱跑。</t>
+  </si>
+  <si>
+    <t>你爸爸做生意赚了很多钱。</t>
+  </si>
+  <si>
+    <t>家人从小就培养你做家务。</t>
+  </si>
+  <si>
+    <t>你的妹妹出生了。</t>
+  </si>
+  <si>
+    <t>EVT?[10023]</t>
+  </si>
+  <si>
+    <t>你的弟弟出生了。</t>
+  </si>
+  <si>
+    <t>EVT?[10024]</t>
+  </si>
+  <si>
+    <t>你翻家里箱子，发现一些古籍</t>
+  </si>
+  <si>
+    <t>村里的老人常常给你讲述一些古老的传说和神话故事</t>
+  </si>
+  <si>
+    <t>你开始学会了认字</t>
+  </si>
+  <si>
+    <t>镇里住着的亲戚来到了你家</t>
   </si>
 </sst>
 </file>
@@ -225,7 +285,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -234,13 +294,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="微软雅黑"/>
@@ -249,11 +302,6 @@
     <font>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -849,19 +897,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -870,213 +927,189 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1398,20 +1431,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="81.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="115.888888888889" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="50.5" style="1" customWidth="1"/>
     <col min="5" max="6" width="15.5" style="1" customWidth="1"/>
@@ -1463,19 +1496,19 @@
       <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="20" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1516,19 +1549,19 @@
       <c r="L2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="21" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1553,11 +1586,11 @@
       <c r="L3" s="12">
         <v>1</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="26"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="22"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="31.9" customHeight="1" spans="1:17">
       <c r="A4" s="10">
@@ -1576,11 +1609,11 @@
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="26"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="31.9" customHeight="1" spans="1:17">
       <c r="A5" s="10">
@@ -1599,11 +1632,11 @@
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="26"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="31.9" customHeight="1" spans="1:17">
       <c r="A6" s="10">
@@ -1628,11 +1661,11 @@
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="26"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="31.9" customHeight="1" spans="1:17">
       <c r="A7" s="10">
@@ -1655,13 +1688,13 @@
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="20"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="26"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="22"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="31.9" customHeight="1" spans="1:17">
       <c r="A8" s="10">
@@ -1680,13 +1713,13 @@
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="26"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="22"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="31.9" customHeight="1" spans="1:17">
       <c r="A9" s="10">
@@ -1711,13 +1744,13 @@
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="20" t="s">
+      <c r="M9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="20"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="26"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="22"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="31.9" customHeight="1" spans="1:17">
       <c r="A10" s="13">
@@ -1727,26 +1760,30 @@
         <v>43</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="23" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="27"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="22"/>
     </row>
     <row r="11" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="10">
+        <v>10012</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
       <c r="E11" s="12"/>
@@ -1757,15 +1794,21 @@
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="26"/>
+      <c r="M11" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="18"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="22"/>
     </row>
     <row r="12" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="10">
+        <v>10013</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
@@ -1776,15 +1819,21 @@
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="26"/>
+      <c r="M12" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" s="18"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="22"/>
     </row>
     <row r="13" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="10">
+        <v>10014</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
@@ -1795,15 +1844,21 @@
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="26"/>
+      <c r="M13" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="18"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="22"/>
     </row>
     <row r="14" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="10">
+        <v>10015</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
       <c r="E14" s="12"/>
@@ -1814,15 +1869,21 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="26"/>
+      <c r="M14" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" s="18"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="22"/>
     </row>
     <row r="15" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="10">
+        <v>10016</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
       <c r="E15" s="12"/>
@@ -1833,15 +1894,21 @@
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="26"/>
+      <c r="M15" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="18"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="22"/>
     </row>
     <row r="16" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="10">
+        <v>10017</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="12"/>
@@ -1852,15 +1919,21 @@
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="26"/>
+      <c r="M16" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" s="18"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="22"/>
     </row>
     <row r="17" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="10">
+        <v>10018</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="12"/>
@@ -1871,15 +1944,21 @@
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="26"/>
+      <c r="M17" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="18"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="22"/>
     </row>
     <row r="18" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="10">
+        <v>10019</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="E18" s="12"/>
@@ -1890,15 +1969,21 @@
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="26"/>
+      <c r="M18" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18" s="18"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="22"/>
     </row>
     <row r="19" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="10">
+        <v>10020</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
       <c r="E19" s="12"/>
@@ -1909,34 +1994,48 @@
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="26"/>
+      <c r="M19" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" s="18"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="22"/>
     </row>
     <row r="20" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="10">
+        <v>10021</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="H20" s="12">
+        <v>1</v>
+      </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="26"/>
+      <c r="M20" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" s="18"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="22"/>
     </row>
     <row r="21" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="10">
+        <v>10022</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
       <c r="E21" s="12"/>
@@ -1947,15 +2046,21 @@
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="26"/>
+      <c r="M21" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N21" s="18"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="22"/>
     </row>
     <row r="22" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="10">
+        <v>10023</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
       <c r="E22" s="12"/>
@@ -1966,15 +2071,23 @@
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="26"/>
+      <c r="M22" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="22"/>
     </row>
     <row r="23" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="10">
+        <v>10024</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
       <c r="E23" s="12"/>
@@ -1985,15 +2098,23 @@
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="26"/>
+      <c r="M23" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N23" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="22"/>
     </row>
     <row r="24" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="10">
+        <v>10025</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
       <c r="E24" s="12"/>
@@ -2004,15 +2125,21 @@
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="26"/>
+      <c r="M24" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N24" s="18"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="22"/>
     </row>
     <row r="25" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
+      <c r="A25" s="10">
+        <v>10026</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="12"/>
@@ -2023,15 +2150,21 @@
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="26"/>
+      <c r="M25" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N25" s="18"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="22"/>
     </row>
     <row r="26" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
+      <c r="A26" s="10">
+        <v>10027</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="C26" s="10"/>
       <c r="D26" s="11"/>
       <c r="E26" s="12"/>
@@ -2042,15 +2175,21 @@
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="26"/>
+      <c r="M26" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N26" s="18"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="22"/>
     </row>
     <row r="27" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
+      <c r="A27" s="10">
+        <v>10028</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="C27" s="10"/>
       <c r="D27" s="11"/>
       <c r="E27" s="12"/>
@@ -2061,410 +2200,13 @@
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="26"/>
-    </row>
-    <row r="28" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="26"/>
-    </row>
-    <row r="29" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="26"/>
-    </row>
-    <row r="30" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="26"/>
-    </row>
-    <row r="31" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="26"/>
-    </row>
-    <row r="32" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="26"/>
-    </row>
-    <row r="33" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="26"/>
-    </row>
-    <row r="34" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="26"/>
-    </row>
-    <row r="35" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="26"/>
-    </row>
-    <row r="36" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="26"/>
-    </row>
-    <row r="37" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="26"/>
-    </row>
-    <row r="38" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="26"/>
-    </row>
-    <row r="39" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="26"/>
-    </row>
-    <row r="40" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="26"/>
-    </row>
-    <row r="41" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="26"/>
-    </row>
-    <row r="42" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="26"/>
-    </row>
-    <row r="43" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="26"/>
-    </row>
-    <row r="44" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="26"/>
-    </row>
-    <row r="45" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="26"/>
-    </row>
-    <row r="46" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="26"/>
-    </row>
-    <row r="47" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="26"/>
-    </row>
-    <row r="48" ht="31.9" customHeight="1" spans="1:17">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="26"/>
+      <c r="M27" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N27" s="18"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
